--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1761618.326784936</v>
+        <v>-1763401.232644798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918214</v>
+        <v>6028847.321918215</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.165107859198</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>45.80493056238777</v>
       </c>
       <c r="D11" t="n">
-        <v>59.90059279363621</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040937</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.22713566997382</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658523</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741864</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.96444984558477</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403317</v>
+        <v>93.13976518403325</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035618</v>
+        <v>67.87633176035627</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>65.50047858910139</v>
       </c>
       <c r="G12" t="n">
         <v>135.8590221842308</v>
       </c>
       <c r="H12" t="n">
-        <v>18.32961418785545</v>
+        <v>18.32961418785553</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285296</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S12" t="n">
-        <v>144.1093279635754</v>
+        <v>64.54059415929285</v>
       </c>
       <c r="T12" t="n">
-        <v>146.658033605987</v>
+        <v>114.6124383743877</v>
       </c>
       <c r="U12" t="n">
-        <v>146.2749841333383</v>
+        <v>146.2749841333384</v>
       </c>
       <c r="V12" t="n">
-        <v>153.2318533451427</v>
+        <v>223.5631797395946</v>
       </c>
       <c r="W12" t="n">
-        <v>172.126249356637</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>126.2042513991949</v>
+        <v>126.204251399195</v>
       </c>
       <c r="Y12" t="n">
-        <v>126.1139619730218</v>
+        <v>126.1139619730219</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434526</v>
+        <v>87.67808729434535</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392978</v>
+        <v>69.04673921392987</v>
       </c>
       <c r="E13" t="n">
-        <v>66.8652288422866</v>
+        <v>66.86522884228668</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864867</v>
+        <v>65.85231421864876</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121776</v>
+        <v>87.17769483121786</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630868</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437199</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968436</v>
       </c>
       <c r="S13" t="n">
         <v>122.7587393607691</v>
       </c>
       <c r="T13" t="n">
-        <v>143.0592298077221</v>
+        <v>143.0592298077222</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673198</v>
       </c>
       <c r="V13" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W13" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X13" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847547</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>243.8495629880611</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>223.1748272586657</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374288</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G14" t="n">
-        <v>332.959491363645</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040937</v>
+        <v>23.9427685004094</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.22713566997379</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599483</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1623668741864</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
         <v>306.669204851771</v>
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>150.6664126975201</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,10 +1701,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H15" t="n">
-        <v>97.89834799213801</v>
+        <v>18.3296141878555</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S15" t="n">
-        <v>122.0672416727787</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T15" t="n">
         <v>194.1811721786702</v>
       </c>
       <c r="U15" t="n">
-        <v>146.2749841333383</v>
+        <v>225.8437179376209</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C16" t="n">
-        <v>87.67808729434526</v>
+        <v>87.67808729434532</v>
       </c>
       <c r="D16" t="n">
-        <v>69.04673921392978</v>
+        <v>69.04673921392984</v>
       </c>
       <c r="E16" t="n">
-        <v>66.8652288422866</v>
+        <v>66.86522884228665</v>
       </c>
       <c r="F16" t="n">
-        <v>65.85231421864867</v>
+        <v>65.85231421864873</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121778</v>
+        <v>87.17769483121783</v>
       </c>
       <c r="H16" t="n">
-        <v>71.59325136630859</v>
+        <v>71.59325136630865</v>
       </c>
       <c r="I16" t="n">
-        <v>38.45470665437191</v>
+        <v>38.45470665437196</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968433</v>
       </c>
       <c r="S16" t="n">
         <v>122.7587393607691</v>
@@ -1822,16 +1822,16 @@
         <v>206.6824109673197</v>
       </c>
       <c r="V16" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W16" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X16" t="n">
         <v>146.1409215847546</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.5963740549154</v>
+        <v>223.5963740549155</v>
       </c>
       <c r="C17" t="n">
-        <v>206.1354241624424</v>
+        <v>206.1354241624425</v>
       </c>
       <c r="D17" t="n">
-        <v>182.1192474049295</v>
+        <v>195.5455740121179</v>
       </c>
       <c r="E17" t="n">
-        <v>222.7929024636966</v>
+        <v>222.7929024636967</v>
       </c>
       <c r="F17" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331464</v>
       </c>
       <c r="G17" t="n">
-        <v>253.3907575593624</v>
+        <v>239.9644309521738</v>
       </c>
       <c r="H17" t="n">
-        <v>151.922859931364</v>
+        <v>151.9228599313641</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.81295415566571</v>
+        <v>51.81295415566583</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149472</v>
+        <v>91.98622431149484</v>
       </c>
       <c r="V17" t="n">
-        <v>168.6147908615697</v>
+        <v>168.6147908615698</v>
       </c>
       <c r="W17" t="n">
-        <v>190.1035011088478</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X17" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474884</v>
+        <v>227.1004710474885</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>34.24820208915126</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>34.57325905991281</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285296</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S18" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T18" t="n">
         <v>194.1811721786702</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.69451257337212</v>
+        <v>20.69451257337224</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>7.608961026935176</v>
+        <v>7.608961026935289</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648645</v>
+        <v>145.8833792861028</v>
       </c>
       <c r="T19" t="n">
-        <v>63.49049600343948</v>
+        <v>63.4904960034396</v>
       </c>
       <c r="U19" t="n">
-        <v>187.6801091191055</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526294</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047198</v>
+        <v>66.57218778047209</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.44718574352962</v>
+        <v>59.44718574352973</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.5963740549154</v>
+        <v>223.5963740549155</v>
       </c>
       <c r="C20" t="n">
-        <v>206.1354241624424</v>
+        <v>206.1354241624425</v>
       </c>
       <c r="D20" t="n">
-        <v>195.5455740121178</v>
+        <v>195.5455740121179</v>
       </c>
       <c r="E20" t="n">
-        <v>222.7929024636966</v>
+        <v>222.7929024636967</v>
       </c>
       <c r="F20" t="n">
-        <v>247.7385781331463</v>
+        <v>234.3122515259583</v>
       </c>
       <c r="G20" t="n">
-        <v>253.3907575593624</v>
+        <v>253.3907575593626</v>
       </c>
       <c r="H20" t="n">
-        <v>138.4965333241759</v>
+        <v>151.9228599313641</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566571</v>
+        <v>51.81295415566583</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149472</v>
+        <v>91.98622431149485</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615697</v>
+        <v>168.6147908615698</v>
       </c>
       <c r="W20" t="n">
-        <v>190.1035011088478</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X20" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474884</v>
+        <v>227.1004710474885</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>72.53393325200422</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H21" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S21" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1811721786702</v>
+        <v>92.57035208359237</v>
       </c>
       <c r="U21" t="n">
         <v>225.8437179376209</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337212</v>
+        <v>20.69451257337224</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>8.109353490062773</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935176</v>
+        <v>7.608961026935289</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648645</v>
+        <v>43.19000555648657</v>
       </c>
       <c r="T22" t="n">
-        <v>63.49049600343948</v>
+        <v>63.4904960034396</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1136771630371</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V22" t="n">
-        <v>93.00017571526283</v>
+        <v>93.00017571526294</v>
       </c>
       <c r="W22" t="n">
-        <v>198.4739572744473</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X22" t="n">
-        <v>66.57218778047198</v>
+        <v>162.7607117394946</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.44718574352962</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.5963740549154</v>
+        <v>223.5963740549155</v>
       </c>
       <c r="C23" t="n">
-        <v>206.1354241624424</v>
+        <v>206.1354241624425</v>
       </c>
       <c r="D23" t="n">
-        <v>195.5455740121178</v>
+        <v>195.5455740121179</v>
       </c>
       <c r="E23" t="n">
-        <v>222.7929024636966</v>
+        <v>222.7929024636967</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331464</v>
       </c>
       <c r="G23" t="n">
-        <v>253.3907575593624</v>
+        <v>253.3907575593626</v>
       </c>
       <c r="H23" t="n">
-        <v>151.922859931364</v>
+        <v>151.9228599313641</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566571</v>
+        <v>51.81295415566584</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149472</v>
+        <v>91.98622431149485</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615697</v>
+        <v>168.6147908615698</v>
       </c>
       <c r="W23" t="n">
-        <v>190.1035011088478</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X23" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474884</v>
+        <v>227.1004710474885</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8590221842308</v>
+        <v>47.67452869634097</v>
       </c>
       <c r="H24" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S24" t="n">
-        <v>55.92483447568444</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T24" t="n">
         <v>194.1811721786702</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.55743956744452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062659</v>
+        <v>8.109353490062773</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.608961026935176</v>
+        <v>7.608961026935289</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648645</v>
+        <v>43.19000555648657</v>
       </c>
       <c r="T25" t="n">
-        <v>63.49049600343948</v>
+        <v>63.4904960034396</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1136771630371</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V25" t="n">
-        <v>93.00017571526283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>107.3101127376014</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>303.165107859198</v>
       </c>
       <c r="C26" t="n">
-        <v>285.7041579667249</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D26" t="n">
         <v>275.1143078164004</v>
@@ -2564,13 +2564,13 @@
         <v>302.3616362679792</v>
       </c>
       <c r="F26" t="n">
-        <v>327.3073119374288</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G26" t="n">
-        <v>332.959491363645</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I26" t="n">
         <v>23.94276850040936</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997372</v>
+        <v>66.22713566997373</v>
       </c>
       <c r="T26" t="n">
-        <v>131.3816879599483</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U26" t="n">
-        <v>171.5549581157773</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V26" t="n">
-        <v>248.1835246658523</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W26" t="n">
-        <v>269.6722349131304</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X26" t="n">
-        <v>290.1623668741864</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y26" t="n">
         <v>306.669204851771</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285297</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.98892659808449</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S27" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T27" t="n">
         <v>194.1811721786702</v>
@@ -2713,25 +2713,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434523</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392975</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228657</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864864</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121775</v>
+        <v>87.17769483121779</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630856</v>
+        <v>71.59325136630861</v>
       </c>
       <c r="I28" t="n">
-        <v>38.45470665437189</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968427</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S28" t="n">
-        <v>122.758739360769</v>
+        <v>122.7587393607691</v>
       </c>
       <c r="T28" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U28" t="n">
-        <v>206.6824109673196</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V28" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W28" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X28" t="n">
         <v>146.1409215847546</v>
@@ -2807,10 +2807,10 @@
         <v>332.9594913636451</v>
       </c>
       <c r="H29" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040941</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997379</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T29" t="n">
         <v>131.3816879599484</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S30" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T30" t="n">
         <v>194.1811721786702</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C31" t="n">
-        <v>87.6780872943453</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392983</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228664</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864871</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121782</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I31" t="n">
-        <v>38.45470665437195</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76513142968433</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S31" t="n">
         <v>122.7587393607691</v>
@@ -3047,7 +3047,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.9427685004094</v>
+        <v>23.94276850040939</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997378</v>
       </c>
       <c r="T32" t="n">
         <v>131.3816879599484</v>
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S33" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T33" t="n">
         <v>194.1811721786702</v>
@@ -3187,25 +3187,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434529</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F34" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630865</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437195</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S36" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T36" t="n">
         <v>194.1811721786702</v>
@@ -3424,10 +3424,10 @@
         <v>34.03611070768099</v>
       </c>
       <c r="C37" t="n">
-        <v>21.45095162437153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>2.819603543956049</v>
+        <v>99.63284466303232</v>
       </c>
       <c r="E37" t="n">
         <v>0.638093172312864</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>117.7638002803201</v>
+        <v>20.95055916124404</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>79.91378591478085</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783848</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S39" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T39" t="n">
         <v>194.1811721786702</v>
@@ -3661,7 +3661,7 @@
         <v>34.03611070768099</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>21.45095162437153</v>
       </c>
       <c r="D40" t="n">
         <v>2.819603543956049</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>117.7638002803202</v>
+        <v>20.95055916124404</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>76.83209413774836</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4552752973459</v>
+        <v>237.6433378677475</v>
       </c>
       <c r="V40" t="n">
         <v>106.3417738495717</v>
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S42" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T42" t="n">
         <v>194.1811721786702</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768099</v>
+        <v>130.8493518267573</v>
       </c>
       <c r="C43" t="n">
-        <v>21.45095162437153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>2.819603543956049</v>
@@ -3913,13 +3913,13 @@
         <v>20.95055916124404</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>76.83209413774836</v>
       </c>
       <c r="U43" t="n">
-        <v>231.8990724129089</v>
+        <v>140.4552752973459</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X43" t="n">
         <v>79.91378591478085</v>
@@ -4074,7 +4074,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S45" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T45" t="n">
         <v>194.1811721786702</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124404</v>
+        <v>166.7464286355003</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>96.81324111907607</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.3274731650516</v>
+        <v>56.53160369079532</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6279636120047</v>
+        <v>76.83209413774836</v>
       </c>
       <c r="U46" t="n">
         <v>140.4552752973459</v>
@@ -4201,7 +4201,7 @@
         <v>79.91378591478085</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.78878387783848</v>
+        <v>197.3744540125167</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>660.3382760077218</v>
+        <v>1055.021890991327</v>
       </c>
       <c r="C11" t="n">
-        <v>660.3382760077218</v>
+        <v>1008.754284362653</v>
       </c>
       <c r="D11" t="n">
-        <v>599.8326267212205</v>
+        <v>1008.754284362653</v>
       </c>
       <c r="E11" t="n">
-        <v>294.4168325111405</v>
+        <v>703.3384901525729</v>
       </c>
       <c r="F11" t="n">
-        <v>294.4168325111405</v>
+        <v>372.7250437511295</v>
       </c>
       <c r="G11" t="n">
-        <v>294.4168325111405</v>
+        <v>36.402325201993</v>
       </c>
       <c r="H11" t="n">
-        <v>60.5869398488712</v>
+        <v>36.402325201993</v>
       </c>
       <c r="I11" t="n">
-        <v>36.40232520199298</v>
+        <v>36.402325201993</v>
       </c>
       <c r="J11" t="n">
-        <v>257.7009633964342</v>
+        <v>90.29531437608122</v>
       </c>
       <c r="K11" t="n">
-        <v>415.006205187197</v>
+        <v>221.8054530777752</v>
       </c>
       <c r="L11" t="n">
-        <v>615.0579230265248</v>
+        <v>421.857170917103</v>
       </c>
       <c r="M11" t="n">
-        <v>869.3234424062433</v>
+        <v>867.8589286171909</v>
       </c>
       <c r="N11" t="n">
-        <v>1132.317052094775</v>
+        <v>1318.337702991854</v>
       </c>
       <c r="O11" t="n">
-        <v>1367.319198855443</v>
+        <v>1553.339849752523</v>
       </c>
       <c r="P11" t="n">
-        <v>1533.387093289899</v>
+        <v>1719.407744186978</v>
       </c>
       <c r="Q11" t="n">
-        <v>1820.116260099649</v>
+        <v>1795.945070243423</v>
       </c>
       <c r="R11" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.11626009965</v>
       </c>
       <c r="S11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463313</v>
       </c>
       <c r="T11" t="n">
-        <v>1820.116260099649</v>
+        <v>1620.511387746193</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.116260099649</v>
+        <v>1620.511387746193</v>
       </c>
       <c r="V11" t="n">
-        <v>1569.425831144242</v>
+        <v>1620.511387746193</v>
       </c>
       <c r="W11" t="n">
-        <v>1569.425831144242</v>
+        <v>1348.115190864243</v>
       </c>
       <c r="X11" t="n">
-        <v>1276.332531271327</v>
+        <v>1055.021890991327</v>
       </c>
       <c r="Y11" t="n">
-        <v>966.5656576836793</v>
+        <v>1055.021890991327</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>699.2354134122085</v>
+        <v>580.1904993039911</v>
       </c>
       <c r="C12" t="n">
-        <v>605.1548425192457</v>
+        <v>486.1099284110282</v>
       </c>
       <c r="D12" t="n">
-        <v>536.5928912461586</v>
+        <v>417.5479771379411</v>
       </c>
       <c r="E12" t="n">
-        <v>377.3554362407031</v>
+        <v>258.3105221324856</v>
       </c>
       <c r="F12" t="n">
-        <v>230.8208782675881</v>
+        <v>192.1484225475347</v>
       </c>
       <c r="G12" t="n">
-        <v>93.58954272796106</v>
+        <v>54.91708700790768</v>
       </c>
       <c r="H12" t="n">
-        <v>75.07478092204647</v>
+        <v>36.402325201993</v>
       </c>
       <c r="I12" t="n">
-        <v>36.40232520199298</v>
+        <v>36.402325201993</v>
       </c>
       <c r="J12" t="n">
-        <v>174.5128983801548</v>
+        <v>174.5128983801549</v>
       </c>
       <c r="K12" t="n">
-        <v>275.3661243424328</v>
+        <v>275.366124342433</v>
       </c>
       <c r="L12" t="n">
-        <v>457.2982738649873</v>
+        <v>503.9393270106369</v>
       </c>
       <c r="M12" t="n">
-        <v>688.9613793449599</v>
+        <v>954.4181013853002</v>
       </c>
       <c r="N12" t="n">
-        <v>964.639356251726</v>
+        <v>1206.621284847991</v>
       </c>
       <c r="O12" t="n">
-        <v>1415.118130626389</v>
+        <v>1415.11813062639</v>
       </c>
       <c r="P12" t="n">
         <v>1563.122164526897</v>
       </c>
       <c r="Q12" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.11626009965</v>
       </c>
       <c r="R12" t="n">
-        <v>1812.046637273301</v>
+        <v>1812.046637273302</v>
       </c>
       <c r="S12" t="n">
-        <v>1666.481659532316</v>
+        <v>1746.854117920481</v>
       </c>
       <c r="T12" t="n">
-        <v>1518.342231647481</v>
+        <v>1631.083978148372</v>
       </c>
       <c r="U12" t="n">
-        <v>1370.589722421886</v>
+        <v>1483.331468922778</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.810072578308</v>
+        <v>1257.510075246419</v>
       </c>
       <c r="W12" t="n">
-        <v>1041.945174238271</v>
+        <v>1003.272718518218</v>
       </c>
       <c r="X12" t="n">
-        <v>914.4661324209019</v>
+        <v>875.793676700849</v>
       </c>
       <c r="Y12" t="n">
-        <v>787.0782920441122</v>
+        <v>748.4058363240592</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334159</v>
+        <v>527.9861862334162</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936732</v>
+        <v>439.4224616936734</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695017</v>
+        <v>369.6782806695018</v>
       </c>
       <c r="E13" t="n">
         <v>302.1376454752728</v>
@@ -5188,61 +5188,61 @@
         <v>235.6201563655266</v>
       </c>
       <c r="G13" t="n">
-        <v>147.561878758236</v>
+        <v>147.5618787582358</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671211</v>
+        <v>75.24546323671218</v>
       </c>
       <c r="I13" t="n">
-        <v>36.40232520199298</v>
+        <v>36.402325201993</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047546</v>
+        <v>109.8596221047556</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180465</v>
+        <v>309.7340958180474</v>
       </c>
       <c r="L13" t="n">
-        <v>599.0017100013556</v>
+        <v>599.0017100013565</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035641</v>
+        <v>910.100887703565</v>
       </c>
       <c r="N13" t="n">
-        <v>1221.11048570127</v>
+        <v>1221.110485701271</v>
       </c>
       <c r="O13" t="n">
         <v>1498.375280567426</v>
       </c>
       <c r="P13" t="n">
-        <v>1723.471626070057</v>
+        <v>1723.471626070059</v>
       </c>
       <c r="Q13" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.11626009965</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.929258655523</v>
+        <v>1777.929258655524</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028484</v>
+        <v>1653.930532028485</v>
       </c>
       <c r="T13" t="n">
-        <v>1509.426259495431</v>
+        <v>1509.426259495432</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.656147407229</v>
+        <v>1300.65614740723</v>
       </c>
       <c r="V13" t="n">
         <v>1126.344117589507</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407102</v>
+        <v>917.2994059407108</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308572</v>
+        <v>769.6823134308576</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754914</v>
+        <v>629.2621926754916</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1766.912722915521</v>
+        <v>1280.416099911672</v>
       </c>
       <c r="C14" t="n">
-        <v>1478.322664363274</v>
+        <v>1280.416099911672</v>
       </c>
       <c r="D14" t="n">
-        <v>1200.429424144687</v>
+        <v>1280.416099911672</v>
       </c>
       <c r="E14" t="n">
-        <v>975.0003057015914</v>
+        <v>975.0003057015915</v>
       </c>
       <c r="F14" t="n">
-        <v>644.386859300148</v>
+        <v>644.3868593001481</v>
       </c>
       <c r="G14" t="n">
-        <v>308.0641407510116</v>
+        <v>308.0641407510117</v>
       </c>
       <c r="H14" t="n">
-        <v>74.23424808874223</v>
+        <v>74.23424808874229</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3482716363053</v>
+        <v>103.9426226159523</v>
       </c>
       <c r="K14" t="n">
-        <v>723.7623687834523</v>
+        <v>235.4527613176463</v>
       </c>
       <c r="L14" t="n">
-        <v>923.8140866227801</v>
+        <v>848.9890815619201</v>
       </c>
       <c r="M14" t="n">
-        <v>1178.079606002499</v>
+        <v>1468.353295404988</v>
       </c>
       <c r="N14" t="n">
-        <v>1441.07321569103</v>
+        <v>1731.34690509352</v>
       </c>
       <c r="O14" t="n">
-        <v>1706.932699903003</v>
+        <v>1966.349051854188</v>
       </c>
       <c r="P14" t="n">
-        <v>2191.581315427226</v>
+        <v>2215.752505283455</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.310482236977</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R14" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="S14" t="n">
-        <v>2502.481672093204</v>
+        <v>2435.585575456868</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.772896376085</v>
+        <v>2302.876799739749</v>
       </c>
       <c r="U14" t="n">
-        <v>2369.772896376085</v>
+        <v>2129.588963259165</v>
       </c>
       <c r="V14" t="n">
-        <v>2369.772896376085</v>
+        <v>2129.588963259165</v>
       </c>
       <c r="W14" t="n">
-        <v>2369.772896376085</v>
+        <v>2129.588963259165</v>
       </c>
       <c r="X14" t="n">
-        <v>2076.679596503169</v>
+        <v>1836.49566338625</v>
       </c>
       <c r="Y14" t="n">
-        <v>1766.912722915521</v>
+        <v>1526.728789798602</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>954.0000968165722</v>
+        <v>851.3629048013418</v>
       </c>
       <c r="C15" t="n">
-        <v>779.5470675354452</v>
+        <v>699.174609147281</v>
       </c>
       <c r="D15" t="n">
-        <v>630.6126578741939</v>
+        <v>550.2401994860297</v>
       </c>
       <c r="E15" t="n">
-        <v>471.3752028687385</v>
+        <v>391.0027444805743</v>
       </c>
       <c r="F15" t="n">
-        <v>324.8406448956234</v>
+        <v>244.4681865074593</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559964</v>
+        <v>107.2368509678323</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191758</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J15" t="n">
-        <v>188.1602066200259</v>
+        <v>63.33008163302123</v>
       </c>
       <c r="K15" t="n">
-        <v>550.8340172247567</v>
+        <v>164.1833075952993</v>
       </c>
       <c r="L15" t="n">
-        <v>732.7661667473112</v>
+        <v>468.3110879299378</v>
       </c>
       <c r="M15" t="n">
-        <v>1321.505372425317</v>
+        <v>1087.675301773006</v>
       </c>
       <c r="N15" t="n">
-        <v>1573.708555888007</v>
+        <v>1707.039515616074</v>
       </c>
       <c r="O15" t="n">
-        <v>1782.205401666406</v>
+        <v>2305.460057478436</v>
       </c>
       <c r="P15" t="n">
-        <v>2245.487576520452</v>
+        <v>2453.464091378944</v>
       </c>
       <c r="Q15" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266858</v>
       </c>
       <c r="S15" t="n">
-        <v>2371.111805152938</v>
+        <v>2348.847071525872</v>
       </c>
       <c r="T15" t="n">
-        <v>2174.969206992665</v>
+        <v>2152.704473365599</v>
       </c>
       <c r="U15" t="n">
-        <v>2027.216697767071</v>
+        <v>1924.579505751841</v>
       </c>
       <c r="V15" t="n">
-        <v>1792.064589535328</v>
+        <v>1689.427397520098</v>
       </c>
       <c r="W15" t="n">
-        <v>1537.827232807127</v>
+        <v>1435.190040791897</v>
       </c>
       <c r="X15" t="n">
-        <v>1329.975732601594</v>
+        <v>1227.338540586364</v>
       </c>
       <c r="Y15" t="n">
-        <v>1122.21543383664</v>
+        <v>1019.57824182141</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.633494473287</v>
+        <v>541.6334944732873</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335443</v>
+        <v>453.0697699335446</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093728</v>
+        <v>383.325588909373</v>
       </c>
       <c r="E16" t="n">
-        <v>315.7849537151438</v>
+        <v>315.7849537151441</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053977</v>
+        <v>249.2674646053979</v>
       </c>
       <c r="G16" t="n">
-        <v>161.209186998107</v>
+        <v>161.2091869981069</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658319</v>
+        <v>88.89277147658326</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J16" t="n">
-        <v>123.5069303446257</v>
+        <v>123.506930344626</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579172</v>
+        <v>323.3814040579178</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412264</v>
+        <v>612.6490182412267</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434349</v>
+        <v>923.7481959434351</v>
       </c>
       <c r="N16" t="n">
         <v>1234.757793941141</v>
       </c>
       <c r="O16" t="n">
-        <v>1512.022588807296</v>
+        <v>1512.022588807297</v>
       </c>
       <c r="P16" t="n">
         <v>1737.118934309929</v>
@@ -5464,7 +5464,7 @@
         <v>1667.577840268355</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.073567735302</v>
+        <v>1523.073567735303</v>
       </c>
       <c r="U16" t="n">
         <v>1314.303455647101</v>
@@ -5473,13 +5473,13 @@
         <v>1139.991425829378</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805815</v>
+        <v>930.9467141805819</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707283</v>
+        <v>783.3296216707288</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153625</v>
+        <v>642.9095009153629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5489,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1326.918087638774</v>
+        <v>1326.918087638775</v>
       </c>
       <c r="C17" t="n">
         <v>1118.700487474691</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121361</v>
+        <v>921.1797056442691</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6983158902203</v>
+        <v>696.1363698223532</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769413</v>
+        <v>445.895381809074</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3482716363053</v>
+        <v>271.3482716363054</v>
       </c>
       <c r="K17" t="n">
-        <v>723.7623687834523</v>
+        <v>723.7623687834524</v>
       </c>
       <c r="L17" t="n">
-        <v>954.6714240740849</v>
+        <v>923.8140866227802</v>
       </c>
       <c r="M17" t="n">
-        <v>1208.936943453803</v>
+        <v>1178.079606002499</v>
       </c>
       <c r="N17" t="n">
-        <v>1471.930553142335</v>
+        <v>1441.073215691031</v>
       </c>
       <c r="O17" t="n">
-        <v>1706.932699903003</v>
+        <v>2053.067541901817</v>
       </c>
       <c r="P17" t="n">
-        <v>2191.581315427226</v>
+        <v>2425.94434603676</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.310482236977</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="T17" t="n">
-        <v>2450.145354764249</v>
+        <v>2450.14535476425</v>
       </c>
       <c r="U17" t="n">
-        <v>2357.22997667183</v>
+        <v>2357.229976671831</v>
       </c>
       <c r="V17" t="n">
-        <v>2186.912006104588</v>
+        <v>2186.912006104589</v>
       </c>
       <c r="W17" t="n">
-        <v>1994.888267610802</v>
+        <v>1994.888267610803</v>
       </c>
       <c r="X17" t="n">
         <v>1782.167426126051</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.3629048013404</v>
+        <v>851.3629048013418</v>
       </c>
       <c r="C18" t="n">
-        <v>676.9098755202134</v>
+        <v>676.9098755202148</v>
       </c>
       <c r="D18" t="n">
-        <v>527.9754658589621</v>
+        <v>527.9754658589635</v>
       </c>
       <c r="E18" t="n">
-        <v>368.7380108535066</v>
+        <v>368.738010853508</v>
       </c>
       <c r="F18" t="n">
-        <v>222.2034528803916</v>
+        <v>222.203452880393</v>
       </c>
       <c r="G18" t="n">
-        <v>187.6093093559964</v>
+        <v>84.97211734076595</v>
       </c>
       <c r="H18" t="n">
-        <v>88.72208916191758</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J18" t="n">
-        <v>188.1602066200259</v>
+        <v>188.160206620026</v>
       </c>
       <c r="K18" t="n">
-        <v>550.8340172247567</v>
+        <v>289.0134325823041</v>
       </c>
       <c r="L18" t="n">
-        <v>732.7661667473112</v>
+        <v>838.0775239552831</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.505372425317</v>
+        <v>1457.441737798351</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.708555888007</v>
+        <v>2076.80595164142</v>
       </c>
       <c r="O18" t="n">
-        <v>1782.205401666406</v>
+        <v>2285.302797419819</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.487576520452</v>
+        <v>2433.306831320327</v>
       </c>
       <c r="Q18" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266858</v>
       </c>
       <c r="S18" t="n">
-        <v>2348.847071525871</v>
+        <v>2348.847071525872</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.704473365598</v>
+        <v>2152.704473365599</v>
       </c>
       <c r="U18" t="n">
-        <v>1924.579505751839</v>
+        <v>1924.579505751841</v>
       </c>
       <c r="V18" t="n">
-        <v>1689.427397520097</v>
+        <v>1689.427397520098</v>
       </c>
       <c r="W18" t="n">
-        <v>1435.190040791895</v>
+        <v>1435.190040791897</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.338540586362</v>
+        <v>1227.338540586364</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.578241821408</v>
+        <v>1019.57824182141</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219.2634932065916</v>
+        <v>498.2008603213208</v>
       </c>
       <c r="C19" t="n">
-        <v>211.0722270550132</v>
+        <v>329.2646773934139</v>
       </c>
       <c r="D19" t="n">
-        <v>211.0722270550132</v>
+        <v>329.2646773934139</v>
       </c>
       <c r="E19" t="n">
-        <v>63.15913347262008</v>
+        <v>329.2646773934139</v>
       </c>
       <c r="F19" t="n">
-        <v>63.15913347262008</v>
+        <v>182.3747298955035</v>
       </c>
       <c r="G19" t="n">
-        <v>55.47331425349364</v>
+        <v>174.688910676377</v>
       </c>
       <c r="H19" t="n">
-        <v>55.47331425349364</v>
+        <v>174.688910676377</v>
       </c>
       <c r="I19" t="n">
-        <v>55.47331425349364</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="K19" t="n">
-        <v>171.1510606889162</v>
+        <v>171.1510606889163</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059856</v>
+        <v>381.6456284059857</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419543</v>
+        <v>613.9717596419545</v>
       </c>
       <c r="N19" t="n">
-        <v>846.2083111734208</v>
+        <v>846.208311173421</v>
       </c>
       <c r="O19" t="n">
         <v>1044.700059573336</v>
@@ -5698,25 +5698,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S19" t="n">
-        <v>1165.268677934205</v>
+        <v>1061.53799739924</v>
       </c>
       <c r="T19" t="n">
-        <v>1101.136863789317</v>
+        <v>997.4061832543512</v>
       </c>
       <c r="U19" t="n">
-        <v>911.5609959922409</v>
+        <v>869.0085295543136</v>
       </c>
       <c r="V19" t="n">
-        <v>656.8765077863541</v>
+        <v>775.068958124755</v>
       </c>
       <c r="W19" t="n">
-        <v>367.4593377493934</v>
+        <v>646.3967048641227</v>
       </c>
       <c r="X19" t="n">
-        <v>300.2147036277045</v>
+        <v>579.1520707424338</v>
       </c>
       <c r="Y19" t="n">
-        <v>240.1670412605029</v>
+        <v>519.1044083752321</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.918087638774</v>
+        <v>1326.918087638775</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.70048747469</v>
+        <v>1118.700487474692</v>
       </c>
       <c r="D20" t="n">
-        <v>921.1797056442684</v>
+        <v>921.1797056442698</v>
       </c>
       <c r="E20" t="n">
-        <v>696.1363698223527</v>
+        <v>696.1363698223539</v>
       </c>
       <c r="F20" t="n">
-        <v>445.8953818090736</v>
+        <v>459.4573278769415</v>
       </c>
       <c r="G20" t="n">
-        <v>189.9451216481024</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3482716363053</v>
+        <v>103.9426226159523</v>
       </c>
       <c r="K20" t="n">
-        <v>402.8584103379992</v>
+        <v>556.3567197630994</v>
       </c>
       <c r="L20" t="n">
-        <v>602.910128177327</v>
+        <v>756.4084376024273</v>
       </c>
       <c r="M20" t="n">
-        <v>857.1756475570455</v>
+        <v>1010.673956982146</v>
       </c>
       <c r="N20" t="n">
-        <v>1120.169257245577</v>
+        <v>1273.667566670677</v>
       </c>
       <c r="O20" t="n">
-        <v>1731.10388975923</v>
+        <v>1706.932699903005</v>
       </c>
       <c r="P20" t="n">
-        <v>2215.752505283454</v>
+        <v>2191.581315427228</v>
       </c>
       <c r="Q20" t="n">
-        <v>2502.481672093204</v>
+        <v>2478.310482236978</v>
       </c>
       <c r="R20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="S20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="T20" t="n">
-        <v>2450.145354764249</v>
+        <v>2450.14535476425</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.22997667183</v>
+        <v>2357.229976671832</v>
       </c>
       <c r="V20" t="n">
-        <v>2186.912006104587</v>
+        <v>2186.91200610459</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.888267610802</v>
+        <v>1994.888267610804</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.16742612605</v>
+        <v>1782.167426126052</v>
       </c>
       <c r="Y20" t="n">
-        <v>1552.773010926567</v>
+        <v>1552.773010926569</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.3629048013404</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C21" t="n">
-        <v>676.9098755202134</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D21" t="n">
-        <v>527.9754658589621</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E21" t="n">
-        <v>368.7380108535066</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F21" t="n">
-        <v>222.2034528803916</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9368536359429</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H21" t="n">
-        <v>50.04963344186408</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J21" t="n">
-        <v>188.1602066200259</v>
+        <v>63.33008163302123</v>
       </c>
       <c r="K21" t="n">
-        <v>550.8340172247567</v>
+        <v>164.1833075952993</v>
       </c>
       <c r="L21" t="n">
-        <v>1089.842266945344</v>
+        <v>713.2473989682784</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.505372425317</v>
+        <v>944.910504448251</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.708555888007</v>
+        <v>1564.274718291319</v>
       </c>
       <c r="O21" t="n">
-        <v>1782.205401666406</v>
+        <v>2162.695260153681</v>
       </c>
       <c r="P21" t="n">
-        <v>2245.487576520452</v>
+        <v>2453.464091378944</v>
       </c>
       <c r="Q21" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R21" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266858</v>
       </c>
       <c r="S21" t="n">
-        <v>2348.847071525871</v>
+        <v>2348.847071525872</v>
       </c>
       <c r="T21" t="n">
-        <v>2152.704473365598</v>
+        <v>2255.341665380829</v>
       </c>
       <c r="U21" t="n">
-        <v>1924.579505751839</v>
+        <v>2027.216697767071</v>
       </c>
       <c r="V21" t="n">
-        <v>1689.427397520097</v>
+        <v>1792.064589535328</v>
       </c>
       <c r="W21" t="n">
-        <v>1435.190040791895</v>
+        <v>1537.827232807127</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.338540586362</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.578241821408</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>530.1250493952558</v>
+        <v>221.4670390365345</v>
       </c>
       <c r="C22" t="n">
-        <v>361.1888664673489</v>
+        <v>213.2757728849559</v>
       </c>
       <c r="D22" t="n">
-        <v>211.0722270550132</v>
+        <v>63.15913347262021</v>
       </c>
       <c r="E22" t="n">
-        <v>63.15913347262008</v>
+        <v>63.15913347262021</v>
       </c>
       <c r="F22" t="n">
-        <v>63.15913347262008</v>
+        <v>63.15913347262021</v>
       </c>
       <c r="G22" t="n">
-        <v>55.47331425349364</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="H22" t="n">
-        <v>55.47331425349364</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="I22" t="n">
-        <v>55.47331425349364</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="K22" t="n">
-        <v>171.1510606889162</v>
+        <v>171.1510606889163</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059856</v>
+        <v>381.6456284059857</v>
       </c>
       <c r="M22" t="n">
-        <v>613.9717596419543</v>
+        <v>613.9717596419545</v>
       </c>
       <c r="N22" t="n">
-        <v>846.2083111734208</v>
+        <v>846.208311173421</v>
       </c>
       <c r="O22" t="n">
         <v>1044.700059573336</v>
@@ -5932,28 +5932,28 @@
         <v>1208.894946173081</v>
       </c>
       <c r="R22" t="n">
-        <v>1208.894946173081</v>
+        <v>1086.335486340791</v>
       </c>
       <c r="S22" t="n">
-        <v>1165.268677934205</v>
+        <v>1042.709218101916</v>
       </c>
       <c r="T22" t="n">
-        <v>1101.136863789317</v>
+        <v>978.5774039570272</v>
       </c>
       <c r="U22" t="n">
-        <v>972.7392100892798</v>
+        <v>850.1797502569896</v>
       </c>
       <c r="V22" t="n">
-        <v>878.7996386597214</v>
+        <v>756.240178827431</v>
       </c>
       <c r="W22" t="n">
-        <v>678.3208939380575</v>
+        <v>627.5679255667987</v>
       </c>
       <c r="X22" t="n">
-        <v>611.0762598163686</v>
+        <v>463.163166233976</v>
       </c>
       <c r="Y22" t="n">
-        <v>551.028597449167</v>
+        <v>242.3705870904458</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.756808116189</v>
+        <v>1340.75680811619</v>
       </c>
       <c r="C23" t="n">
-        <v>1132.539207952106</v>
+        <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216841</v>
+        <v>935.0184261216846</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997685</v>
+        <v>709.975090299769</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864894</v>
+        <v>459.7341022864898</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255175</v>
+        <v>203.7838421255176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141239</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141239</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="J23" t="n">
-        <v>271.6250460458536</v>
+        <v>104.2193970255006</v>
       </c>
       <c r="K23" t="n">
-        <v>718.5153700204305</v>
+        <v>235.7295357271946</v>
       </c>
       <c r="L23" t="n">
-        <v>918.5670878597583</v>
+        <v>435.7812535665224</v>
       </c>
       <c r="M23" t="n">
-        <v>1541.356385020987</v>
+        <v>1058.570550727751</v>
       </c>
       <c r="N23" t="n">
-        <v>1804.349994709518</v>
+        <v>1681.35984788898</v>
       </c>
       <c r="O23" t="n">
-        <v>2039.352141470187</v>
+        <v>1916.361994649648</v>
       </c>
       <c r="P23" t="n">
-        <v>2205.420035904642</v>
+        <v>2229.59122576087</v>
       </c>
       <c r="Q23" t="n">
-        <v>2492.149202714392</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.320392570619</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.320392570619</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241664</v>
+        <v>2463.984075241665</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.068697149245</v>
+        <v>2371.068697149246</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.750726582003</v>
+        <v>2200.750726582004</v>
       </c>
       <c r="W23" t="n">
-        <v>2008.726988088217</v>
+        <v>2008.726988088218</v>
       </c>
       <c r="X23" t="n">
-        <v>1796.006146603466</v>
+        <v>1796.006146603467</v>
       </c>
       <c r="Y23" t="n">
         <v>1566.611731403983</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.2768712261205</v>
+        <v>865.2016252787571</v>
       </c>
       <c r="C24" t="n">
-        <v>779.8238419449935</v>
+        <v>690.7485959976301</v>
       </c>
       <c r="D24" t="n">
-        <v>630.8894322837423</v>
+        <v>541.8141863363788</v>
       </c>
       <c r="E24" t="n">
-        <v>471.6519772782867</v>
+        <v>382.5767313309233</v>
       </c>
       <c r="F24" t="n">
-        <v>325.1174193051717</v>
+        <v>236.0421733578083</v>
       </c>
       <c r="G24" t="n">
         <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99886357146589</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141239</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="J24" t="n">
-        <v>188.4369810295742</v>
+        <v>188.4369810295743</v>
       </c>
       <c r="K24" t="n">
         <v>551.1107916343051</v>
       </c>
       <c r="L24" t="n">
-        <v>733.0429411568596</v>
+        <v>1100.174883007284</v>
       </c>
       <c r="M24" t="n">
-        <v>964.7060466368322</v>
+        <v>1331.837988487257</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.495343798061</v>
+        <v>1584.041171949948</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143822</v>
+        <v>1796.044122143823</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997867</v>
+        <v>2259.326296997868</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.320392570619</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744272</v>
+        <v>2508.250769744273</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.761037950651</v>
+        <v>2362.685792003288</v>
       </c>
       <c r="T24" t="n">
-        <v>2255.618439790378</v>
+        <v>2166.543193843015</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.493472176619</v>
+        <v>1938.418226229256</v>
       </c>
       <c r="V24" t="n">
-        <v>1792.341363944877</v>
+        <v>1703.266117997513</v>
       </c>
       <c r="W24" t="n">
-        <v>1538.104007216675</v>
+        <v>1449.028761269312</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.252507011142</v>
+        <v>1241.177261063779</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.492208246189</v>
+        <v>1033.416962298825</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.62717403374684</v>
+        <v>71.62717403374707</v>
       </c>
       <c r="C25" t="n">
-        <v>63.43590788216839</v>
+        <v>63.43590788216851</v>
       </c>
       <c r="D25" t="n">
-        <v>63.43590788216839</v>
+        <v>63.43590788216851</v>
       </c>
       <c r="E25" t="n">
-        <v>63.43590788216839</v>
+        <v>63.43590788216851</v>
       </c>
       <c r="F25" t="n">
-        <v>63.43590788216839</v>
+        <v>63.43590788216851</v>
       </c>
       <c r="G25" t="n">
-        <v>55.75008866304195</v>
+        <v>55.75008866304196</v>
       </c>
       <c r="H25" t="n">
-        <v>55.75008866304195</v>
+        <v>55.75008866304196</v>
       </c>
       <c r="I25" t="n">
-        <v>55.75008866304195</v>
+        <v>55.75008866304196</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141239</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="K25" t="n">
-        <v>171.4278350984645</v>
+        <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
-        <v>381.9224028155339</v>
+        <v>381.922402815534</v>
       </c>
       <c r="M25" t="n">
         <v>614.2485340515027</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829692</v>
+        <v>846.4850855829693</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
@@ -6178,19 +6178,19 @@
         <v>1101.413638198865</v>
       </c>
       <c r="U25" t="n">
-        <v>973.0159844988279</v>
+        <v>973.0159844988277</v>
       </c>
       <c r="V25" t="n">
-        <v>879.0764130692695</v>
+        <v>718.3314962929409</v>
       </c>
       <c r="W25" t="n">
-        <v>589.659243032309</v>
+        <v>589.6592430323086</v>
       </c>
       <c r="X25" t="n">
-        <v>361.6696921342916</v>
+        <v>361.6696921342913</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.8771129907615</v>
+        <v>253.2756388639868</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404896</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852648</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634063</v>
+        <v>1303.874969634062</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239833</v>
+        <v>998.4591754239827</v>
       </c>
       <c r="F26" t="n">
-        <v>667.84572902254</v>
+        <v>667.8457290225394</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734036</v>
+        <v>331.523010473403</v>
       </c>
       <c r="H26" t="n">
         <v>97.69311781113443</v>
@@ -6224,25 +6224,25 @@
         <v>73.50850316425628</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8071413586974</v>
+        <v>127.4014923383445</v>
       </c>
       <c r="K26" t="n">
-        <v>747.2212385058444</v>
+        <v>579.8155894854915</v>
       </c>
       <c r="L26" t="n">
-        <v>1360.757558750118</v>
+        <v>1193.351909729765</v>
       </c>
       <c r="M26" t="n">
-        <v>2060.041476287741</v>
+        <v>1892.635827267388</v>
       </c>
       <c r="N26" t="n">
-        <v>2323.035085976273</v>
+        <v>2588.602892123784</v>
       </c>
       <c r="O26" t="n">
-        <v>2935.029412187059</v>
+        <v>3200.59721833457</v>
       </c>
       <c r="P26" t="n">
-        <v>3419.678027711282</v>
+        <v>3598.887832156369</v>
       </c>
       <c r="Q26" t="n">
         <v>3675.425158212814</v>
@@ -6251,25 +6251,25 @@
         <v>3675.425158212814</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T26" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U26" t="n">
         <v>3302.532449378774</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423367</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541417</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668502</v>
+        <v>2486.352523668501</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.585650080855</v>
+        <v>2176.585650080854</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>73.50850316425628</v>
       </c>
       <c r="J27" t="n">
-        <v>211.6190763424181</v>
+        <v>86.7889513554134</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471489</v>
+        <v>449.4627619601443</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.356978320128</v>
+        <v>998.5268533331234</v>
       </c>
       <c r="M27" t="n">
-        <v>1355.0200838001</v>
+        <v>1230.189958813096</v>
       </c>
       <c r="N27" t="n">
-        <v>1607.223267262791</v>
+        <v>1482.393142275787</v>
       </c>
       <c r="O27" t="n">
         <v>1908.30146340403</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956792</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559365</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317653</v>
+        <v>406.784458631765</v>
       </c>
       <c r="E28" t="n">
-        <v>339.2438234375364</v>
+        <v>339.2438234375361</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277903</v>
+        <v>272.7263343277899</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204996</v>
+        <v>184.6680567204992</v>
       </c>
       <c r="H28" t="n">
         <v>112.3516411989754</v>
@@ -6391,7 +6391,7 @@
         <v>636.107887963619</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658274</v>
+        <v>947.2070656658275</v>
       </c>
       <c r="N28" t="n">
         <v>1258.216663663534</v>
@@ -6403,22 +6403,22 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R28" t="n">
-        <v>1815.035436617786</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S28" t="n">
-        <v>1691.036709990747</v>
+        <v>1691.036709990748</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.532437457694</v>
+        <v>1546.532437457695</v>
       </c>
       <c r="U28" t="n">
         <v>1337.762325369493</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W28" t="n">
         <v>954.4055839029738</v>
@@ -6427,7 +6427,7 @@
         <v>806.7884913931207</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377549</v>
+        <v>666.3683706377548</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.358268404899</v>
+        <v>1870.358268404897</v>
       </c>
       <c r="C29" t="n">
-        <v>1581.768209852651</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.874969634065</v>
+        <v>1303.874969634064</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239844</v>
+        <v>998.4591754239837</v>
       </c>
       <c r="F29" t="n">
-        <v>667.845729022541</v>
+        <v>667.8457290225406</v>
       </c>
       <c r="G29" t="n">
         <v>331.5230104734046</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113451</v>
+        <v>97.69311781113443</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J29" t="n">
         <v>294.8071413586975</v>
       </c>
       <c r="K29" t="n">
-        <v>747.2212385058446</v>
+        <v>747.2212385058447</v>
       </c>
       <c r="L29" t="n">
-        <v>1360.757558750118</v>
+        <v>1360.757558750119</v>
       </c>
       <c r="M29" t="n">
-        <v>1615.023078129837</v>
+        <v>2060.041476287741</v>
       </c>
       <c r="N29" t="n">
-        <v>2292.053049668056</v>
+        <v>2756.008541144137</v>
       </c>
       <c r="O29" t="n">
-        <v>2904.047375878842</v>
+        <v>3222.628096968609</v>
       </c>
       <c r="P29" t="n">
-        <v>3388.695991403065</v>
+        <v>3388.695991403064</v>
       </c>
       <c r="Q29" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="R29" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.529061576478</v>
+        <v>3608.529061576477</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859359</v>
+        <v>3475.820285859358</v>
       </c>
       <c r="U29" t="n">
-        <v>3302.532449378776</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V29" t="n">
-        <v>3051.842020423369</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W29" t="n">
         <v>2779.445823541419</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668504</v>
+        <v>2486.352523668503</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.585650080856</v>
+        <v>2176.585650080855</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7834179555647</v>
+        <v>211.6190763424182</v>
       </c>
       <c r="K30" t="n">
-        <v>559.4572285602956</v>
+        <v>574.2928869471491</v>
       </c>
       <c r="L30" t="n">
-        <v>741.38937808285</v>
+        <v>1123.356978320128</v>
       </c>
       <c r="M30" t="n">
-        <v>973.0524835628227</v>
+        <v>1355.020083800101</v>
       </c>
       <c r="N30" t="n">
-        <v>1699.804617625631</v>
+        <v>1607.223267262792</v>
       </c>
       <c r="O30" t="n">
         <v>1908.30146340403</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956789</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559362</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317652</v>
+        <v>406.7844586317647</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375358</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277896</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204994</v>
+        <v>184.668056720499</v>
       </c>
       <c r="H31" t="n">
-        <v>112.3516411989755</v>
+        <v>112.3516411989751</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9658000670179</v>
+        <v>146.9658000670176</v>
       </c>
       <c r="K31" t="n">
         <v>346.8402737803097</v>
@@ -6640,31 +6640,31 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q31" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.222438061912</v>
       </c>
       <c r="R31" t="n">
         <v>1815.035436617787</v>
       </c>
       <c r="S31" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990747</v>
       </c>
       <c r="T31" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U31" t="n">
         <v>1337.762325369493</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029741</v>
+        <v>954.4055839029738</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931209</v>
+        <v>806.7884913931207</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.368370637755</v>
+        <v>666.3683706377544</v>
       </c>
     </row>
     <row r="32">
@@ -6686,52 +6686,52 @@
         <v>998.4591754239837</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225404</v>
+        <v>667.8457290225406</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734042</v>
       </c>
       <c r="H32" t="n">
-        <v>97.6931178111345</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J32" t="n">
         <v>294.8071413586975</v>
       </c>
       <c r="K32" t="n">
-        <v>696.7503494347092</v>
+        <v>747.2212385058447</v>
       </c>
       <c r="L32" t="n">
-        <v>896.802067274037</v>
+        <v>1360.757558750119</v>
       </c>
       <c r="M32" t="n">
-        <v>1596.08598481166</v>
+        <v>1615.023078129837</v>
       </c>
       <c r="N32" t="n">
-        <v>2292.053049668056</v>
+        <v>2310.990142986233</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.047375878842</v>
+        <v>2922.984469197019</v>
       </c>
       <c r="P32" t="n">
-        <v>3388.695991403065</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
-        <v>3675.425158212815</v>
+        <v>3651.253968356587</v>
       </c>
       <c r="R32" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576478</v>
+        <v>3608.529061576477</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.820285859359</v>
+        <v>3475.820285859358</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V32" t="n">
         <v>3051.842020423368</v>
@@ -6774,28 +6774,28 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J33" t="n">
-        <v>211.6190763424182</v>
+        <v>86.7889513554134</v>
       </c>
       <c r="K33" t="n">
-        <v>574.292886947149</v>
+        <v>187.6421773176914</v>
       </c>
       <c r="L33" t="n">
-        <v>756.2250364697035</v>
+        <v>736.7062686906705</v>
       </c>
       <c r="M33" t="n">
-        <v>987.8881419496761</v>
+        <v>968.3693741706431</v>
       </c>
       <c r="N33" t="n">
-        <v>1309.880921541669</v>
+        <v>1695.121508233452</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.30146340403</v>
+        <v>2293.542050095813</v>
       </c>
       <c r="P33" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.577733830828</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956788</v>
+        <v>565.092364195679</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559361</v>
+        <v>476.5286396559363</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317646</v>
+        <v>406.7844586317648</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375356</v>
+        <v>339.2438234375358</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277895</v>
+        <v>272.7263343277896</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204988</v>
+        <v>184.6680567204989</v>
       </c>
       <c r="H34" t="n">
-        <v>112.3516411989749</v>
+        <v>112.3516411989754</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J34" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8402737803096</v>
+        <v>346.8402737803095</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636186</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658273</v>
+        <v>947.2070656658271</v>
       </c>
       <c r="N34" t="n">
         <v>1258.216663663533</v>
@@ -6886,7 +6886,7 @@
         <v>1691.036709990747</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457694</v>
+        <v>1546.532437457695</v>
       </c>
       <c r="U34" t="n">
         <v>1337.762325369493</v>
@@ -6895,13 +6895,13 @@
         <v>1163.45029555177</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029736</v>
+        <v>954.4055839029738</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931202</v>
+        <v>806.7884913931205</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377543</v>
+        <v>666.3683706377545</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100895</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363466</v>
+        <v>753.9795368363468</v>
       </c>
       <c r="F35" t="n">
-        <v>490.2621870712403</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J35" t="n">
-        <v>275.2004073269506</v>
+        <v>141.9914040259843</v>
       </c>
       <c r="K35" t="n">
-        <v>727.6145044740977</v>
+        <v>594.4055011731314</v>
       </c>
       <c r="L35" t="n">
-        <v>927.6662223134255</v>
+        <v>794.4572190124592</v>
       </c>
       <c r="M35" t="n">
-        <v>1181.931741693144</v>
+        <v>1048.722738392178</v>
       </c>
       <c r="N35" t="n">
-        <v>1444.925351381676</v>
+        <v>1311.716348080709</v>
       </c>
       <c r="O35" t="n">
-        <v>2056.919677592462</v>
+        <v>1923.710674291496</v>
       </c>
       <c r="P35" t="n">
         <v>2408.359289815719</v>
@@ -7011,10 +7011,10 @@
         <v>92.57422485256288</v>
       </c>
       <c r="I36" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J36" t="n">
-        <v>192.0123423106712</v>
+        <v>192.0123423106713</v>
       </c>
       <c r="K36" t="n">
         <v>554.6861529154021</v>
@@ -7023,10 +7023,10 @@
         <v>1103.750244288381</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.994700131193</v>
+        <v>1335.413349768354</v>
       </c>
       <c r="N36" t="n">
-        <v>1680.197883593884</v>
+        <v>1587.616533231044</v>
       </c>
       <c r="O36" t="n">
         <v>1888.694729372283</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.4356724833129</v>
+        <v>350.7042275078144</v>
       </c>
       <c r="C37" t="n">
-        <v>181.7680445799073</v>
+        <v>181.7680445799075</v>
       </c>
       <c r="D37" t="n">
-        <v>178.9199601920729</v>
+        <v>81.12880754654148</v>
       </c>
       <c r="E37" t="n">
-        <v>178.2754216341811</v>
+        <v>80.4842689886497</v>
       </c>
       <c r="F37" t="n">
-        <v>178.2754216341811</v>
+        <v>80.4842689886497</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769611</v>
+        <v>59.32208801769612</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="K37" t="n">
-        <v>175.0031963795615</v>
+        <v>175.0031963795616</v>
       </c>
       <c r="L37" t="n">
         <v>385.4977640966309</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325996</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640661</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
@@ -7126,19 +7126,19 @@
         <v>1078.036275976308</v>
       </c>
       <c r="U37" t="n">
-        <v>936.1622605244436</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V37" t="n">
-        <v>828.7463273430581</v>
+        <v>828.7463273430583</v>
       </c>
       <c r="W37" t="n">
-        <v>539.3291573060974</v>
+        <v>539.3291573060976</v>
       </c>
       <c r="X37" t="n">
-        <v>458.6081614325814</v>
+        <v>458.6081614325816</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.8155822890513</v>
+        <v>385.0841373135528</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.190339908251</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.49637799234</v>
+        <v>1203.496377992338</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100912</v>
+        <v>992.4992344100892</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363482</v>
+        <v>753.9795368363464</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712421</v>
+        <v>490.2621870712401</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J38" t="n">
-        <v>275.2004073269506</v>
+        <v>107.7947583065976</v>
       </c>
       <c r="K38" t="n">
-        <v>406.7105460286444</v>
+        <v>239.3048970082915</v>
       </c>
       <c r="L38" t="n">
-        <v>606.7622638679723</v>
+        <v>852.8412172525653</v>
       </c>
       <c r="M38" t="n">
-        <v>861.0277832476908</v>
+        <v>1107.106736632284</v>
       </c>
       <c r="N38" t="n">
-        <v>1528.062176262494</v>
+        <v>1370.100346320816</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.539484435269</v>
+        <v>1982.094672531602</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.188099959492</v>
+        <v>2466.743288055825</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.917266769242</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="R38" t="n">
         <v>2695.088456625469</v>
@@ -7202,22 +7202,22 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.089705381373</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W38" t="n">
-        <v>2133.58960513576</v>
+        <v>2133.589605135759</v>
       </c>
       <c r="X38" t="n">
-        <v>1907.392401899182</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947871</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256289</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J39" t="n">
-        <v>192.0123423106712</v>
+        <v>67.18221732366649</v>
       </c>
       <c r="K39" t="n">
-        <v>554.6861529154021</v>
+        <v>168.0354432859446</v>
       </c>
       <c r="L39" t="n">
-        <v>736.6183024379566</v>
+        <v>717.0995346589236</v>
       </c>
       <c r="M39" t="n">
-        <v>968.2814079179292</v>
+        <v>1384.133927673727</v>
       </c>
       <c r="N39" t="n">
-        <v>1290.274187509922</v>
+        <v>1636.337111136418</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.694729372283</v>
+        <v>2234.757652998779</v>
       </c>
       <c r="P39" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.970999799081</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.9727825323156</v>
+        <v>399.8030223601931</v>
       </c>
       <c r="C40" t="n">
-        <v>329.0365996044087</v>
+        <v>378.1353944567875</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1885152165743</v>
+        <v>375.2873100689532</v>
       </c>
       <c r="E40" t="n">
-        <v>178.2754216341812</v>
+        <v>227.37421648656</v>
       </c>
       <c r="F40" t="n">
-        <v>178.2754216341812</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="G40" t="n">
-        <v>59.32208801769612</v>
+        <v>59.32208801769611</v>
       </c>
       <c r="H40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795615</v>
@@ -7342,7 +7342,7 @@
         <v>617.8238953325997</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
@@ -7363,19 +7363,19 @@
         <v>1078.036275976308</v>
       </c>
       <c r="U40" t="n">
-        <v>936.1622605244436</v>
+        <v>837.992500352321</v>
       </c>
       <c r="V40" t="n">
-        <v>828.7463273430581</v>
+        <v>730.5765671709355</v>
       </c>
       <c r="W40" t="n">
-        <v>686.5977123305988</v>
+        <v>588.4279521584763</v>
       </c>
       <c r="X40" t="n">
-        <v>605.8767164570828</v>
+        <v>507.7069562849603</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.352692338054</v>
+        <v>434.1829321659314</v>
       </c>
     </row>
     <row r="41">
@@ -7388,64 +7388,64 @@
         <v>1425.19033990825</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.49637799234</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100906</v>
+        <v>992.4992344100901</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363477</v>
+        <v>753.9795368363471</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712414</v>
+        <v>490.262187071241</v>
       </c>
       <c r="G41" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J41" t="n">
         <v>275.2004073269507</v>
       </c>
       <c r="K41" t="n">
-        <v>406.7105460286446</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L41" t="n">
-        <v>606.7622638679724</v>
+        <v>927.6662223134256</v>
       </c>
       <c r="M41" t="n">
-        <v>1273.796656882776</v>
+        <v>1234.743389289255</v>
       </c>
       <c r="N41" t="n">
-        <v>1536.790266571308</v>
+        <v>1497.736998977787</v>
       </c>
       <c r="O41" t="n">
-        <v>2148.784592782094</v>
+        <v>2109.731325188573</v>
       </c>
       <c r="P41" t="n">
-        <v>2408.359289815719</v>
+        <v>2594.379940712797</v>
       </c>
       <c r="Q41" t="n">
-        <v>2695.08845662547</v>
+        <v>2670.917266769242</v>
       </c>
       <c r="R41" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="S41" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="T41" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U41" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W41" t="n">
         <v>2133.589605135759</v>
@@ -7454,7 +7454,7 @@
         <v>1907.392401899181</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.521624947871</v>
+        <v>1664.52162494787</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.57422485256291</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J42" t="n">
         <v>192.0123423106712</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.068200649411</v>
+        <v>252.9130748622828</v>
       </c>
       <c r="C43" t="n">
-        <v>89.40057274600544</v>
+        <v>83.97689193437586</v>
       </c>
       <c r="D43" t="n">
-        <v>86.55248835817105</v>
+        <v>81.12880754654147</v>
       </c>
       <c r="E43" t="n">
-        <v>85.90794980027927</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="F43" t="n">
-        <v>85.90794980027927</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="G43" t="n">
-        <v>64.74576882932568</v>
+        <v>59.32208801769611</v>
       </c>
       <c r="H43" t="n">
-        <v>59.32544994413896</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I43" t="n">
-        <v>59.32544994413896</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795615</v>
@@ -7579,7 +7579,7 @@
         <v>617.8238953325997</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7600,19 +7600,19 @@
         <v>1078.036275976308</v>
       </c>
       <c r="U43" t="n">
-        <v>843.7947886905416</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V43" t="n">
-        <v>589.1103004846548</v>
+        <v>681.477772318557</v>
       </c>
       <c r="W43" t="n">
-        <v>299.6931304476942</v>
+        <v>539.3291573060976</v>
       </c>
       <c r="X43" t="n">
-        <v>218.9721345741782</v>
+        <v>458.6081614325816</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.4481104551494</v>
+        <v>385.0841373135528</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7628,55 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100899</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363471</v>
       </c>
       <c r="F44" t="n">
-        <v>490.2621870712405</v>
+        <v>490.262187071241</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I44" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J44" t="n">
-        <v>275.2004073269506</v>
+        <v>275.2004073269507</v>
       </c>
       <c r="K44" t="n">
-        <v>406.7105460286444</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L44" t="n">
-        <v>1020.246866272918</v>
+        <v>1147.278208606351</v>
       </c>
       <c r="M44" t="n">
-        <v>1274.512385652637</v>
+        <v>1401.543727986069</v>
       </c>
       <c r="N44" t="n">
-        <v>1537.505995341168</v>
+        <v>1664.537337674601</v>
       </c>
       <c r="O44" t="n">
-        <v>1923.710674291495</v>
+        <v>1899.539484435269</v>
       </c>
       <c r="P44" t="n">
-        <v>2408.359289815719</v>
+        <v>2384.188099959492</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U44" t="n">
         <v>2522.884037700441</v>
@@ -7719,13 +7719,13 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256289</v>
       </c>
       <c r="I45" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J45" t="n">
-        <v>192.0123423106712</v>
+        <v>192.0123423106713</v>
       </c>
       <c r="K45" t="n">
         <v>554.6861529154021</v>
@@ -7734,10 +7734,10 @@
         <v>1103.750244288381</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.994700131193</v>
+        <v>1335.413349768354</v>
       </c>
       <c r="N45" t="n">
-        <v>1680.197883593884</v>
+        <v>1587.616533231044</v>
       </c>
       <c r="O45" t="n">
         <v>1888.694729372283</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.6445198377814</v>
+        <v>372.1286712851661</v>
       </c>
       <c r="C46" t="n">
-        <v>83.97689193437586</v>
+        <v>350.4610433817605</v>
       </c>
       <c r="D46" t="n">
-        <v>81.12880754654147</v>
+        <v>347.6129589939262</v>
       </c>
       <c r="E46" t="n">
-        <v>80.48426898864969</v>
+        <v>346.9684204360344</v>
       </c>
       <c r="F46" t="n">
-        <v>80.48426898864969</v>
+        <v>346.9684204360344</v>
       </c>
       <c r="G46" t="n">
-        <v>59.32208801769611</v>
+        <v>178.5376844405795</v>
       </c>
       <c r="H46" t="n">
-        <v>53.90176913250938</v>
+        <v>173.1173655553927</v>
       </c>
       <c r="I46" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J46" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="K46" t="n">
-        <v>175.0031963795615</v>
+        <v>175.0031963795616</v>
       </c>
       <c r="L46" t="n">
         <v>385.4977640966309</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325996</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640661</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7828,28 +7828,28 @@
         <v>1212.747081863726</v>
       </c>
       <c r="R46" t="n">
-        <v>1114.955929218195</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S46" t="n">
-        <v>910.5847442029908</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T46" t="n">
-        <v>685.708013281774</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U46" t="n">
-        <v>543.8339978299094</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V46" t="n">
-        <v>436.4180646485239</v>
+        <v>828.7463273430583</v>
       </c>
       <c r="W46" t="n">
-        <v>294.2694496360646</v>
+        <v>686.5977123305991</v>
       </c>
       <c r="X46" t="n">
-        <v>213.5484537625486</v>
+        <v>605.876716457083</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.0244296435198</v>
+        <v>406.5085810909045</v>
       </c>
     </row>
   </sheetData>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>26.05565968592819</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>193.6729680003731</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>189.3789542284158</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>47.11217489459537</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>221.0259281764553</v>
       </c>
       <c r="N12" t="n">
-        <v>23.71191256977343</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>244.4261905012766</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>368.7865600639897</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>31.16902772859052</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>84.1773323179911</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>123.4299301132161</v>
       </c>
       <c r="M15" t="n">
-        <v>360.6829294929624</v>
+        <v>391.6172811748442</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>370.8697276569474</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>31.16902772859072</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>208.8978885863514</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>360.6829294929624</v>
+        <v>391.6172811748441</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>370.8697276569474</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>20.36086874607751</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>379.7297835888736</v>
+        <v>200.2656429006655</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>360.6829294929623</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>370.8697276569474</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>144.2068659846011</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>318.5658437099829</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>372.2462401833432</v>
+        <v>372.2462401833435</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>363.4299873461586</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>148.6478148250169</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>374.329407776301</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05245713874930402</v>
+        <v>3.541519611592037</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>234.568403421559</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.0200044899874</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>41.30107658386422</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>93.51651551802064</v>
+        <v>219.6075508584286</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>418.2185473229164</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>233.956978852326</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>111.1055218183347</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>93.51651551801962</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>273.1647165397149</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>278.2549877932949</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>70.49454154474992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>139.4081506265108</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>34.54206638321888</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>187.2441593826277</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>93.51651551801996</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>93.51651551801962</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>408.1220033598708</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>137.8536983960667</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>153.341255063837</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.76897730791</v>
       </c>
       <c r="N39" t="n">
-        <v>70.49454154474958</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>178.9815476621538</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>416.9382561970558</v>
+        <v>53.34509858193064</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>94.45131575673764</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>93.51651551801996</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>221.8302891847727</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>152.7298304946048</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>93.51651551801996</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>93.51651551801962</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>239.8992274043373</v>
       </c>
       <c r="D11" t="n">
-        <v>215.2137150227641</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374288</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>332.959491363645</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.94276850040943</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997373</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599483</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157773</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131304</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.6692048517711</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.165107859198</v>
+        <v>59.31554487113695</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E14" t="n">
-        <v>79.18680900931352</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997373</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.5549581157773</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658523</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W14" t="n">
-        <v>269.6722349131304</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>13.42632660718825</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>13.42632660718876</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>13.42632660718809</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42632660718809</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204819.0846792597</v>
+        <v>204819.0846792596</v>
       </c>
       <c r="C2" t="n">
         <v>204819.0846792596</v>
@@ -26323,31 +26323,31 @@
         <v>169440.0306763778</v>
       </c>
       <c r="F2" t="n">
-        <v>182614.4460384291</v>
+        <v>182614.4460384292</v>
       </c>
       <c r="G2" t="n">
         <v>204993.2585665877</v>
       </c>
       <c r="H2" t="n">
-        <v>204993.2585665876</v>
+        <v>204993.2585665877</v>
       </c>
       <c r="I2" t="n">
         <v>205260.4424660707</v>
       </c>
       <c r="J2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="K2" t="n">
         <v>205260.4424660707</v>
-      </c>
-      <c r="K2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660707</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.4424660706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660707</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660707</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>753993.2266122001</v>
+        <v>753993.2266122003</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921633</v>
+        <v>48878.85800921639</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342608</v>
+        <v>63654.98704342604</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>920.0015970186909</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542159</v>
+        <v>75818.20182542151</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.9870434261</v>
+        <v>63654.98704342602</v>
       </c>
       <c r="M3" t="n">
-        <v>105300.814810854</v>
+        <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583638</v>
+        <v>41782.42831583636</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,22 +26430,22 @@
         <v>160091.4048491453</v>
       </c>
       <c r="G4" t="n">
-        <v>210988.9811331992</v>
+        <v>210988.9811331991</v>
       </c>
       <c r="H4" t="n">
         <v>210988.9811331992</v>
       </c>
       <c r="I4" t="n">
-        <v>211418.6354537101</v>
+        <v>211418.63545371</v>
       </c>
       <c r="J4" t="n">
-        <v>201346.1402347317</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="K4" t="n">
-        <v>201346.1402347317</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="L4" t="n">
-        <v>201346.1402347317</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="M4" t="n">
         <v>209486.9446193681</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49400.51786652592</v>
+        <v>49400.51786652593</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882795</v>
+        <v>59772.47212882797</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.73601102018</v>
+        <v>66461.7360110202</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.73601102018</v>
+        <v>66461.7360110202</v>
       </c>
       <c r="I5" t="n">
-        <v>66672.0845622769</v>
+        <v>66672.08456227691</v>
       </c>
       <c r="J5" t="n">
         <v>77601.21311784603</v>
       </c>
       <c r="K5" t="n">
-        <v>77601.21311784604</v>
+        <v>77601.21311784603</v>
       </c>
       <c r="L5" t="n">
-        <v>77601.21311784604</v>
+        <v>77601.21311784603</v>
       </c>
       <c r="M5" t="n">
         <v>68267.74432235741</v>
@@ -26509,7 +26509,7 @@
         <v>68267.74432235741</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270457.7653165608</v>
+        <v>-270462.1788944289</v>
       </c>
       <c r="C6" t="n">
-        <v>-270457.7653165609</v>
+        <v>-270462.1788944291</v>
       </c>
       <c r="D6" t="n">
-        <v>-270457.7653165609</v>
+        <v>-270462.1788944289</v>
       </c>
       <c r="E6" t="n">
-        <v>-772859.5438789803</v>
+        <v>-773217.7479968774</v>
       </c>
       <c r="F6" t="n">
-        <v>-86128.2889487605</v>
+        <v>-86354.74891303688</v>
       </c>
       <c r="G6" t="n">
-        <v>-136112.4456210578</v>
+        <v>-136115.1174600525</v>
       </c>
       <c r="H6" t="n">
-        <v>-72457.45857763175</v>
+        <v>-72460.13041662649</v>
       </c>
       <c r="I6" t="n">
-        <v>-73750.27914693498</v>
+        <v>-73750.27914693484</v>
       </c>
       <c r="J6" t="n">
-        <v>-149505.1127119286</v>
+        <v>-149505.1127119284</v>
       </c>
       <c r="K6" t="n">
-        <v>-73686.91088650694</v>
+        <v>-73686.9108865069</v>
       </c>
       <c r="L6" t="n">
-        <v>-137341.8979299331</v>
+        <v>-137341.8979299329</v>
       </c>
       <c r="M6" t="n">
-        <v>-177795.0612865088</v>
+        <v>-177795.061286509</v>
       </c>
       <c r="N6" t="n">
         <v>-114276.6747914912</v>
       </c>
       <c r="O6" t="n">
-        <v>-72494.24647565486</v>
+        <v>-72494.2464756548</v>
       </c>
       <c r="P6" t="n">
-        <v>-72494.24647565483</v>
+        <v>-72494.24647565481</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="F2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G2" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H2" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="J2" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K2" t="n">
+        <v>79.56873380428256</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.56873380428253</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.56873380428254</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="F3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="G3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="H3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="I3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678449</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="K3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="L3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="M3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="N3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="O3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="P3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249125</v>
       </c>
       <c r="F4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="G4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="H4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426548</v>
+        <v>629.0800981426552</v>
       </c>
       <c r="J4" t="n">
         <v>918.8562895532035</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532039</v>
+        <v>918.8562895532035</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532039</v>
+        <v>918.8562895532035</v>
       </c>
       <c r="M4" t="n">
+        <v>673.7721141563674</v>
+      </c>
+      <c r="N4" t="n">
         <v>673.7721141563673</v>
       </c>
-      <c r="N4" t="n">
-        <v>673.7721141563674</v>
-      </c>
       <c r="O4" t="n">
+        <v>673.7721141563673</v>
+      </c>
+      <c r="P4" t="n">
         <v>673.7721141563675</v>
-      </c>
-      <c r="P4" t="n">
-        <v>673.7721141563673</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428262</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="M2" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997378</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249125</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>3.459680119353834</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105487</v>
+        <v>289.7761914105483</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280757</v>
+        <v>209.9448896280763</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983889</v>
+        <v>170.5913529983887</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249125</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="T12" t="n">
-        <v>47.52313857268317</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="U12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="V12" t="n">
-        <v>79.56873380428257</v>
+        <v>9.237407409830695</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428357</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428249</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="T14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="U14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="W14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>22.0420862907956</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>22.04208629079669</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="D16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="J16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="K16" t="n">
-        <v>79.56873380428223</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="L16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="M16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="N16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="O16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="R16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="S16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="T16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="U16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="V16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="W16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="E17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="F17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="G17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I17" t="n">
         <v>103.5115023046919</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>101.6108200950795</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>63.3250889322252</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C19" t="n">
-        <v>159.1374676085652</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H19" t="n">
         <v>151.1619851705912</v>
       </c>
       <c r="I19" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
-        <v>159.1374676085652</v>
+        <v>56.44409387894888</v>
       </c>
       <c r="T19" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U19" t="n">
-        <v>98.57103565249673</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X19" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="E20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="F20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I20" t="n">
         <v>103.5115023046919</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>63.32508893222654</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285296</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>101.6108200950778</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.3338652339669</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="T22" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V22" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W22" t="n">
-        <v>88.04904106214371</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X22" t="n">
-        <v>159.1374676085652</v>
+        <v>62.9489436495426</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1374676085652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I23" t="n">
         <v>103.5115023046919</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>88.18449348788978</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29165,7 +29165,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>88.18449348789093</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.2745406144928</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S25" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="T25" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U25" t="n">
-        <v>159.1374676085652</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V25" t="n">
-        <v>159.1374676085652</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>111.2745406144934</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K28" t="n">
         <v>79.5687338042826</v>
       </c>
       <c r="L28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428335</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="35">
@@ -30144,10 +30144,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518004</v>
       </c>
       <c r="E37" t="n">
         <v>145.7958694742563</v>
@@ -30156,7 +30156,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>48.9826283551802</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H37" t="n">
         <v>145.7958694742563</v>
@@ -30165,7 +30165,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S37" t="n">
         <v>145.7958694742563</v>
@@ -30210,7 +30210,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="38">
@@ -30381,7 +30381,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="D40" t="n">
         <v>145.7958694742563</v>
@@ -30390,10 +30390,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>48.98262835518011</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H40" t="n">
         <v>145.7958694742563</v>
@@ -30402,7 +30402,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
         <v>145.7958694742563</v>
@@ -30435,7 +30435,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="U40" t="n">
-        <v>145.7958694742563</v>
+        <v>48.60780690385477</v>
       </c>
       <c r="V40" t="n">
         <v>145.7958694742563</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518</v>
       </c>
       <c r="C43" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>145.7958694742563</v>
@@ -30639,7 +30639,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S43" t="n">
         <v>145.7958694742563</v>
@@ -30672,13 +30672,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="U43" t="n">
-        <v>54.35207235869339</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X43" t="n">
         <v>145.7958694742563</v>
@@ -30867,16 +30867,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,13 +30900,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>24.52062411489079</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U46" t="n">
         <v>145.7958694742563</v>
@@ -30921,7 +30921,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.7958694742563</v>
+        <v>21.21019933957805</v>
       </c>
     </row>
   </sheetData>
@@ -31765,7 +31765,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M11" t="n">
         <v>487.1800911865844</v>
@@ -31774,25 +31774,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O11" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P11" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R11" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T11" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H12" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I12" t="n">
         <v>51.11090168856212</v>
@@ -31841,16 +31841,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K12" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O12" t="n">
         <v>353.1991189680801</v>
@@ -31862,16 +31862,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S12" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T12" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I13" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K13" t="n">
         <v>144.5941658128042</v>
@@ -31929,10 +31929,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N13" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O13" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P13" t="n">
         <v>150.5227528930788</v>
@@ -31941,16 +31941,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S13" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32002,7 +32002,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M14" t="n">
         <v>487.1800911865844</v>
@@ -32011,25 +32011,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P14" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q14" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R14" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H15" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
         <v>51.11090168856212</v>
@@ -32078,16 +32078,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O15" t="n">
         <v>353.1991189680801</v>
@@ -32099,16 +32099,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S15" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K16" t="n">
         <v>144.5941658128042</v>
@@ -32166,10 +32166,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N16" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O16" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P16" t="n">
         <v>150.5227528930788</v>
@@ -32178,16 +32178,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S16" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32239,7 +32239,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M17" t="n">
         <v>487.1800911865844</v>
@@ -32248,25 +32248,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O17" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P17" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q17" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R17" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T17" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H18" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I18" t="n">
         <v>51.11090168856212</v>
@@ -32315,16 +32315,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L18" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M18" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O18" t="n">
         <v>353.1991189680801</v>
@@ -32336,16 +32336,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R18" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S18" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T18" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I19" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K19" t="n">
         <v>144.5941658128042</v>
@@ -32403,10 +32403,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N19" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O19" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P19" t="n">
         <v>150.5227528930788</v>
@@ -32415,16 +32415,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R19" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S19" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T19" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32476,7 +32476,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M20" t="n">
         <v>487.1800911865844</v>
@@ -32485,25 +32485,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O20" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P20" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R20" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S20" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T20" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H21" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I21" t="n">
         <v>51.11090168856212</v>
@@ -32552,16 +32552,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L21" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M21" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O21" t="n">
         <v>353.1991189680801</v>
@@ -32573,16 +32573,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R21" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S21" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T21" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K22" t="n">
         <v>144.5941658128042</v>
@@ -32640,10 +32640,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N22" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O22" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P22" t="n">
         <v>150.5227528930788</v>
@@ -32652,16 +32652,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R22" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S22" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T22" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32713,7 +32713,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M23" t="n">
         <v>487.1800911865844</v>
@@ -32722,25 +32722,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O23" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P23" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R23" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T23" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H24" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I24" t="n">
         <v>51.11090168856212</v>
@@ -32789,16 +32789,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K24" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L24" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M24" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O24" t="n">
         <v>353.1991189680801</v>
@@ -32810,16 +32810,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R24" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S24" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T24" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K25" t="n">
         <v>144.5941658128042</v>
@@ -32877,10 +32877,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N25" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O25" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P25" t="n">
         <v>150.5227528930788</v>
@@ -32889,16 +32889,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R25" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S25" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T25" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.774512347207414</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H26" t="n">
-        <v>28.41447457583794</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I26" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287955</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860854</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865843</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930874</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O26" t="n">
-        <v>467.4741172405436</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688605</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R26" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S26" t="n">
-        <v>63.22420011198902</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T26" t="n">
-        <v>12.14542779990046</v>
+        <v>12.14542779990047</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H27" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856211</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J27" t="n">
         <v>140.2522207991486</v>
       </c>
       <c r="K27" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M27" t="n">
-        <v>376.1371707704754</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496871</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O27" t="n">
-        <v>353.19911896808</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P27" t="n">
-        <v>283.4734315562569</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q27" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R27" t="n">
-        <v>92.16890755455864</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S27" t="n">
-        <v>27.57384314026246</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T27" t="n">
-        <v>5.983556516151408</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394036</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I28" t="n">
-        <v>37.42703446860379</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315949</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K28" t="n">
         <v>144.5941658128042</v>
@@ -33114,28 +33114,28 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N28" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O28" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P28" t="n">
-        <v>150.5227528930787</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q28" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S28" t="n">
-        <v>21.68912487192062</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T28" t="n">
-        <v>5.317625816276836</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06788458488864055</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33187,7 +33187,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M29" t="n">
         <v>487.1800911865844</v>
@@ -33196,25 +33196,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P29" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R29" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T29" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H30" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I30" t="n">
         <v>51.11090168856212</v>
@@ -33263,16 +33263,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O30" t="n">
         <v>353.1991189680801</v>
@@ -33284,16 +33284,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R30" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S30" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I31" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K31" t="n">
         <v>144.5941658128042</v>
@@ -33351,10 +33351,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N31" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P31" t="n">
         <v>150.5227528930788</v>
@@ -33363,16 +33363,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S31" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T31" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33424,7 +33424,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M32" t="n">
         <v>487.1800911865844</v>
@@ -33433,25 +33433,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O32" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P32" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R32" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S32" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T32" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H33" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
         <v>51.11090168856212</v>
@@ -33500,16 +33500,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K33" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O33" t="n">
         <v>353.1991189680801</v>
@@ -33521,16 +33521,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R33" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S33" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T33" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I34" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K34" t="n">
         <v>144.5941658128042</v>
@@ -33588,10 +33588,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N34" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O34" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P34" t="n">
         <v>150.5227528930788</v>
@@ -33600,16 +33600,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R34" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S34" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T34" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33661,7 +33661,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M35" t="n">
         <v>487.1800911865844</v>
@@ -33670,25 +33670,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O35" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P35" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q35" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R35" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S35" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T35" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H36" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
         <v>51.11090168856212</v>
@@ -33737,16 +33737,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K36" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M36" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O36" t="n">
         <v>353.1991189680801</v>
@@ -33758,16 +33758,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R36" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S36" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T36" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I37" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K37" t="n">
         <v>144.5941658128042</v>
@@ -33825,10 +33825,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N37" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O37" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P37" t="n">
         <v>150.5227528930788</v>
@@ -33837,16 +33837,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R37" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S37" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T37" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33898,7 +33898,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M38" t="n">
         <v>487.1800911865844</v>
@@ -33907,25 +33907,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P38" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R38" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T38" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H39" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
         <v>51.11090168856212</v>
@@ -33974,16 +33974,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K39" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O39" t="n">
         <v>353.1991189680801</v>
@@ -33995,16 +33995,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S39" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I40" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K40" t="n">
         <v>144.5941658128042</v>
@@ -34062,10 +34062,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N40" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P40" t="n">
         <v>150.5227528930788</v>
@@ -34074,16 +34074,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S40" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,7 +34135,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M41" t="n">
         <v>487.1800911865844</v>
@@ -34144,25 +34144,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P41" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R41" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S41" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T41" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H42" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
         <v>51.11090168856212</v>
@@ -34211,16 +34211,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O42" t="n">
         <v>353.1991189680801</v>
@@ -34232,16 +34232,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S42" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I43" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K43" t="n">
         <v>144.5941658128042</v>
@@ -34299,10 +34299,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N43" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P43" t="n">
         <v>150.5227528930788</v>
@@ -34311,16 +34311,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S43" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,7 +34372,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M44" t="n">
         <v>487.1800911865844</v>
@@ -34381,25 +34381,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P44" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R44" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T44" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H45" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I45" t="n">
         <v>51.11090168856212</v>
@@ -34448,16 +34448,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O45" t="n">
         <v>353.1991189680801</v>
@@ -34469,16 +34469,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I46" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K46" t="n">
         <v>144.5941658128042</v>
@@ -34536,10 +34536,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N46" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P46" t="n">
         <v>150.5227528930788</v>
@@ -34548,16 +34548,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S46" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K11" t="n">
-        <v>158.8941836270331</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L11" t="n">
         <v>202.0724422619473</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593117</v>
+        <v>450.5068259596848</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964966</v>
+        <v>455.0290650249125</v>
       </c>
       <c r="O11" t="n">
         <v>237.375905818857</v>
       </c>
       <c r="P11" t="n">
-        <v>167.745347913591</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.6254210199501</v>
+        <v>77.3104303600455</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K12" t="n">
-        <v>101.8719454164424</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L12" t="n">
-        <v>183.7698480025803</v>
+        <v>230.8820228971757</v>
       </c>
       <c r="M12" t="n">
-        <v>234.0031368484572</v>
+        <v>455.0290650249125</v>
       </c>
       <c r="N12" t="n">
-        <v>278.4626029361273</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O12" t="n">
-        <v>455.0290650249123</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4990241419267</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q12" t="n">
         <v>259.5899955280329</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980077032</v>
       </c>
       <c r="K13" t="n">
         <v>201.8934077912039</v>
@@ -35574,19 +35574,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M13" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N13" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885921</v>
       </c>
       <c r="O13" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597526</v>
       </c>
       <c r="P13" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413271</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K14" t="n">
-        <v>456.9839365122697</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L14" t="n">
-        <v>202.0724422619473</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593117</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="N14" t="n">
         <v>265.6501107964966</v>
       </c>
       <c r="O14" t="n">
-        <v>268.5449335474475</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850737</v>
+        <v>251.9226802315822</v>
       </c>
       <c r="Q14" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R14" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K15" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L15" t="n">
-        <v>183.7698480025803</v>
+        <v>307.1997781157964</v>
       </c>
       <c r="M15" t="n">
-        <v>594.6860663414196</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="N15" t="n">
-        <v>254.7506903663539</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="O15" t="n">
-        <v>210.6028745236356</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P15" t="n">
-        <v>467.9617927818639</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q15" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076926</v>
       </c>
       <c r="K16" t="n">
-        <v>201.8934077912036</v>
+        <v>201.8934077912039</v>
       </c>
       <c r="L16" t="n">
         <v>292.1895092760698</v>
       </c>
       <c r="M16" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N16" t="n">
         <v>314.1511090885922</v>
@@ -35823,7 +35823,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413274</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K17" t="n">
         <v>456.9839365122697</v>
       </c>
       <c r="L17" t="n">
-        <v>233.241469990538</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M17" t="n">
         <v>256.8338579593117</v>
@@ -35896,16 +35896,16 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O17" t="n">
-        <v>237.375905818857</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P17" t="n">
-        <v>489.5440560850737</v>
+        <v>376.6432364999425</v>
       </c>
       <c r="Q17" t="n">
-        <v>289.6254210199501</v>
+        <v>77.3104303600455</v>
       </c>
       <c r="R17" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K18" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L18" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M18" t="n">
-        <v>594.6860663414196</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="N18" t="n">
-        <v>254.7506903663539</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="O18" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P18" t="n">
-        <v>467.9617927818639</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q18" t="n">
-        <v>259.5899955280329</v>
+        <v>69.87357653826133</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L19" t="n">
         <v>212.6207754717873</v>
@@ -36054,13 +36054,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O19" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P19" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L20" t="n">
         <v>202.0724422619473</v>
@@ -36133,16 +36133,16 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O20" t="n">
-        <v>617.1056894077306</v>
+        <v>437.6415487195226</v>
       </c>
       <c r="P20" t="n">
         <v>489.5440560850737</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K21" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L21" t="n">
-        <v>544.4527774955426</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M21" t="n">
         <v>234.0031368484572</v>
       </c>
       <c r="N21" t="n">
-        <v>254.7506903663539</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="O21" t="n">
-        <v>210.6028745236356</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P21" t="n">
-        <v>467.9617927818639</v>
+        <v>293.7058901265279</v>
       </c>
       <c r="Q21" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L22" t="n">
         <v>212.6207754717873</v>
@@ -36291,13 +36291,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O22" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P22" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K23" t="n">
-        <v>451.4043676510878</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L23" t="n">
         <v>202.0724422619473</v>
       </c>
       <c r="M23" t="n">
-        <v>629.0800981426548</v>
+        <v>629.0800981426552</v>
       </c>
       <c r="N23" t="n">
-        <v>265.6501107964966</v>
+        <v>629.0800981426552</v>
       </c>
       <c r="O23" t="n">
         <v>237.375905818857</v>
       </c>
       <c r="P23" t="n">
-        <v>167.745347913591</v>
+        <v>316.393162738608</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R23" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K24" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L24" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M24" t="n">
         <v>234.0031368484572</v>
       </c>
       <c r="N24" t="n">
-        <v>629.0800981426548</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O24" t="n">
-        <v>210.655331662385</v>
+        <v>214.1443941352277</v>
       </c>
       <c r="P24" t="n">
         <v>467.9617927818639</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L25" t="n">
         <v>212.6207754717873</v>
@@ -36528,13 +36528,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O25" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P25" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K26" t="n">
-        <v>456.9839365122696</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L26" t="n">
-        <v>619.7336568123976</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M26" t="n">
-        <v>706.3473914521441</v>
+        <v>706.3473914521442</v>
       </c>
       <c r="N26" t="n">
-        <v>265.6501107964965</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O26" t="n">
-        <v>618.1760870816023</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850736</v>
+        <v>402.3137513351501</v>
       </c>
       <c r="Q26" t="n">
-        <v>258.3304348500328</v>
+        <v>77.3104303600455</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K27" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060394</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484571</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N27" t="n">
-        <v>254.7506903663538</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O27" t="n">
-        <v>304.1193900416562</v>
+        <v>430.2104253820643</v>
       </c>
       <c r="P27" t="n">
-        <v>467.9617927818638</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q27" t="n">
         <v>259.5899955280329</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K28" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L28" t="n">
         <v>292.1895092760698</v>
@@ -36771,7 +36771,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K29" t="n">
         <v>456.9839365122697</v>
       </c>
       <c r="L29" t="n">
-        <v>619.7336568123977</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M29" t="n">
-        <v>256.8338579593117</v>
+        <v>706.3473914521442</v>
       </c>
       <c r="N29" t="n">
-        <v>683.868658119413</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816023</v>
+        <v>471.3328846711831</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850737</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q29" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>124.5201159508166</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K30" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L30" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M30" t="n">
         <v>234.0031368484572</v>
       </c>
       <c r="N30" t="n">
-        <v>734.0930647099074</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O30" t="n">
-        <v>210.6028745236356</v>
+        <v>304.1193900416553</v>
       </c>
       <c r="P30" t="n">
         <v>467.9617927818639</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076926</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K31" t="n">
         <v>201.8934077912039</v>
@@ -36996,19 +36996,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385945</v>
       </c>
       <c r="N31" t="n">
-        <v>314.1511090885921</v>
+        <v>314.1511090885922</v>
       </c>
       <c r="O31" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P31" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413357</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K32" t="n">
-        <v>406.0032404808198</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L32" t="n">
-        <v>202.0724422619473</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M32" t="n">
-        <v>706.3473914521442</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9970352084807</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O32" t="n">
-        <v>618.1760870816023</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850737</v>
+        <v>446.000335706886</v>
       </c>
       <c r="Q32" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K33" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L33" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M33" t="n">
         <v>234.0031368484572</v>
       </c>
       <c r="N33" t="n">
-        <v>325.2452319111038</v>
+        <v>734.0930647099075</v>
       </c>
       <c r="O33" t="n">
-        <v>604.4651938003651</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P33" t="n">
-        <v>467.9617927818639</v>
+        <v>288.9071747684376</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M34" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385945</v>
       </c>
       <c r="N34" t="n">
         <v>314.1511090885922</v>
       </c>
       <c r="O34" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P34" t="n">
         <v>227.3700459622548</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>223.533977974183</v>
+        <v>88.97942918532819</v>
       </c>
       <c r="K35" t="n">
         <v>456.9839365122697</v>
@@ -37318,13 +37318,13 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O35" t="n">
-        <v>618.1760870816023</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P35" t="n">
-        <v>354.9895072962187</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q35" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K36" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L36" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M36" t="n">
-        <v>327.5196523664771</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O36" t="n">
-        <v>210.6028745236356</v>
+        <v>304.1193900416553</v>
       </c>
       <c r="P36" t="n">
         <v>467.9617927818639</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L37" t="n">
         <v>212.6207754717873</v>
@@ -37476,13 +37476,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O37" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P37" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K38" t="n">
-        <v>132.8385239411049</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L38" t="n">
-        <v>202.0724422619473</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M38" t="n">
         <v>256.8338579593117</v>
       </c>
       <c r="N38" t="n">
-        <v>673.7721141563674</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O38" t="n">
-        <v>375.2296042149237</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P38" t="n">
         <v>489.5440560850737</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199501</v>
+        <v>230.6516854238825</v>
       </c>
       <c r="R38" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K39" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M39" t="n">
-        <v>234.0031368484572</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N39" t="n">
-        <v>325.2452319111035</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O39" t="n">
-        <v>604.4651938003651</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P39" t="n">
-        <v>467.9617927818639</v>
+        <v>328.4805718040806</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L40" t="n">
         <v>212.6207754717873</v>
@@ -37713,13 +37713,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O40" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P40" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L41" t="n">
         <v>202.0724422619473</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7721141563675</v>
+        <v>310.1789565412423</v>
       </c>
       <c r="N41" t="n">
         <v>265.6501107964966</v>
       </c>
       <c r="O41" t="n">
-        <v>618.1760870816023</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P41" t="n">
-        <v>262.1966636703287</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q41" t="n">
-        <v>289.6254210199501</v>
+        <v>77.3104303600455</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K42" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L42" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M42" t="n">
-        <v>327.5196523664771</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N42" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O42" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P42" t="n">
         <v>467.9617927818639</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L43" t="n">
         <v>212.6207754717873</v>
@@ -37950,13 +37950,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O43" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P43" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L44" t="n">
-        <v>619.7336568123977</v>
+        <v>423.9027314467201</v>
       </c>
       <c r="M44" t="n">
         <v>256.8338579593117</v>
@@ -38029,16 +38029,16 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1057363134618</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P44" t="n">
         <v>489.5440560850737</v>
       </c>
       <c r="Q44" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K45" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L45" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M45" t="n">
-        <v>327.5196523664771</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N45" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O45" t="n">
-        <v>210.6028745236356</v>
+        <v>304.1193900416553</v>
       </c>
       <c r="P45" t="n">
         <v>467.9617927818639</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L46" t="n">
         <v>212.6207754717873</v>
@@ -38187,13 +38187,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O46" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P46" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
